--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1401543.30934291</v>
+        <v>-1403493.535171471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541393.1368601223</v>
+        <v>165130.2535635623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>38.31580296194487</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>237.9825076895302</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>4.040378664588792</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>114.8056510756247</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>121.2547094525075</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>346.5826841038506</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>150.5122415521828</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.0120820518469</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>298.3654036477785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.78424627109353</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>246.0394658505826</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>205.8417327459772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>140.0680651027564</v>
+        <v>211.2541671901475</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>34.84984876650141</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43.72170015350625</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>179.8088876098635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.406417419882242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>36.28627157371908</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898711</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857348</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692845</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329052</v>
+        <v>77.28915789329051</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463125</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2776,7 +2776,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224541</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1171.95857907428</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>813.6928804675297</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>774.9900491928379</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2638.039210978424</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2522.073906861631</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2522.073906861631</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>2522.073906861631</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>770.969123535386</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C5" t="n">
-        <v>402.0066065949742</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>594.3862944196599</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>176.4224863178467</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1531.034721860588</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1157.568963599508</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1157.568963599508</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,22 +4653,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>361.80799380017</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>361.80799380017</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>361.80799380017</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.451631799375</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2257.816964771438</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2004.05517940953</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1672.992292065959</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1672.992292065959</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="Y8" t="n">
-        <v>2340.741205944899</v>
+        <v>1299.526533804879</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571612</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743752</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.18160738137</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.935021465332</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557909</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1091.075318305807</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1091.075318305807</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6581482688464</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746877</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247869</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383451</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383451</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013845</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735811</v>
+        <v>843.9587363963142</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="20">
@@ -5747,37 +5747,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>2103.272883640391</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>141.380424948676</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383447</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>223.2322278932327</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126483</v>
+        <v>348.5897879510702</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695371</v>
+        <v>578.5528938194193</v>
       </c>
       <c r="M24" t="n">
-        <v>877.4353633695371</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.956019007155</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141522</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X25" t="n">
-        <v>792.4568162435045</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>571.6642370999743</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,13 +6248,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108344</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229687</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N28" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P28" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045219</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901033</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014291</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>355.4532994662921</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>585.4164053346412</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6692,16 +6692,16 @@
         <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>570.9077560114449</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N33" t="n">
-        <v>2612.943493278838</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>2612.943493278838</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6841,10 +6841,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6868,19 +6868,19 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,19 +6920,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N36" t="n">
-        <v>2612.943493278838</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O36" t="n">
-        <v>2612.943493278838</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2473.479317744561</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7078,7 +7078,7 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,31 +7157,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899876</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.963989254138</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,16 +7345,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504513</v>
@@ -7564,22 +7564,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,10 +7646,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,31 +7664,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1980.501175652876</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,34 +7807,34 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>210.6343697760782</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>249.0918826322875</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>178.3913131276564</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>402.1056377198893</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>230.684879230565</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>168.8935380521812</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.9466073945102</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>85.66716743252466</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>80.39561965260017</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>85.64159028628077</v>
+        <v>14.4554881988897</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>132.3969723321264</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8937728647061</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>106.7141107267275</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.4255627620551</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>185.2612894846702</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1258823.514490221</v>
+        <v>1258823.514490222</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770925</v>
+        <v>96832.57803770929</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,22 +26320,22 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442725</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="H2" t="n">
         <v>97757.26493442722</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442725</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26347,7 +26347,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330356</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112586.3083663465</v>
+        <v>112586.3083663466</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.79369057587</v>
+        <v>787.7936905758927</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758288</v>
+        <v>787.7936905759054</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758372</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759054</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="L4" t="n">
-        <v>23206.5809318964</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189641</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>97715.1058200254</v>
@@ -26497,16 +26497,16 @@
         <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688580.6876065911</v>
+        <v>-688696.6404704977</v>
       </c>
       <c r="C6" t="n">
         <v>-119287.9960109931</v>
       </c>
       <c r="D6" t="n">
-        <v>-119287.9960109931</v>
+        <v>-119287.9960109932</v>
       </c>
       <c r="E6" t="n">
-        <v>-520177.8911817619</v>
+        <v>-520275.3503077336</v>
       </c>
       <c r="F6" t="n">
-        <v>4982.145295134746</v>
+        <v>4884.686169162552</v>
       </c>
       <c r="G6" t="n">
-        <v>4982.14529513476</v>
+        <v>4884.686169162553</v>
       </c>
       <c r="H6" t="n">
-        <v>4982.145295134731</v>
+        <v>4884.686169162553</v>
       </c>
       <c r="I6" t="n">
-        <v>4982.145295134731</v>
+        <v>4884.686169162508</v>
       </c>
       <c r="J6" t="n">
-        <v>-249220.1968151917</v>
+        <v>-249220.1968151918</v>
       </c>
       <c r="K6" t="n">
-        <v>-18291.46551888614</v>
+        <v>-18291.46551888606</v>
       </c>
       <c r="L6" t="n">
-        <v>-18291.46551888619</v>
+        <v>-18291.46551888621</v>
       </c>
       <c r="M6" t="n">
-        <v>-153092.4807527235</v>
+        <v>-153092.4807527234</v>
       </c>
       <c r="N6" t="n">
         <v>-18291.46551888621</v>
       </c>
       <c r="O6" t="n">
-        <v>-72796.97762259873</v>
+        <v>-72796.9776225987</v>
       </c>
       <c r="P6" t="n">
-        <v>-18291.46551888619</v>
+        <v>-18291.46551888618</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541001</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>343.6145671103169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>247.1837888437005</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1051426060687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>22.54869530067501</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>202.6680633118497</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2.658284613562387</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,22 +27822,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>135.7696326897949</v>
+        <v>96.68503059263364</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.40363075712466</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.87253500827507</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>109.6497163754756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.098177473245357</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.032423543847198e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>5.278858831540371e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.930330988403098e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29764,10 +29764,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31373,10 +31373,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4090972701571</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>185.2928442992121</v>
+        <v>90.20175899432957</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,25 +32540,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>148.0734588039824</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32567,19 +32567,19 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>128.0346079251941</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>340.8626598318782</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,31 +32874,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,31 +33111,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,31 +33348,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,25 +33500,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>213.8677363986961</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33670,13 +33670,13 @@
         <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.452637254088</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446477</v>
@@ -33737,25 +33737,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>213.8677363986961</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.77739093025048</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33980,19 +33980,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="O39" t="n">
-        <v>330.1172231204814</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34214,22 +34214,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>152.4580040397287</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,13 +34439,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,16 +34454,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>156.2519421180777</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.040675600518</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>79.2926576927449</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>425.897458495764</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206083</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>533.2935065594323</v>
+        <v>438.2024212545498</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407024</v>
+        <v>106.9578487102692</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>47.04960104432308</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2880165989363</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>592.1287346641633</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>270.7639256365559</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>92.84344025620601</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,16 +36996,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>310.474204443229</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>561.8683986589164</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686862</v>
@@ -37318,13 +37318,13 @@
         <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349805</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>561.8683986589164</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>140.8729045800781</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>629.2763168486817</v>
       </c>
       <c r="O39" t="n">
-        <v>581.3832979527665</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>476.0290338677103</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352442</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>340.7403033436847</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
